--- a/Todo_List.xlsx
+++ b/Todo_List.xlsx
@@ -8,17 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adria\OneDrive\Escritorio\Programas_Python\Udemy\6.-React_Desde_Cero\11.-Section_15\1.-Reducer\reducer-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA16215F-2A02-40D8-A488-D50DB38CE180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1EC974-9741-4135-810C-7A979734071E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13770" yWindow="3825" windowWidth="12810" windowHeight="10065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -30,7 +37,7 @@
     <author>Adrián</author>
   </authors>
   <commentList>
-    <comment ref="B24" authorId="0" shapeId="0" xr:uid="{83ABE301-4216-46D4-8905-2B9F28C92150}">
+    <comment ref="B27" authorId="0" shapeId="0" xr:uid="{83ABE301-4216-46D4-8905-2B9F28C92150}">
       <text>
         <r>
           <rPr>
@@ -60,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Set Media Query CSS</t>
   </si>
@@ -104,12 +111,6 @@
     <t>Set Media Query CSS for Monitors</t>
   </si>
   <si>
-    <t>Catch error when trying to add a contact without typing something on the inputs</t>
-  </si>
-  <si>
-    <t>Display alert if an input is not filled</t>
-  </si>
-  <si>
     <t>Catch warning "Each child in a list should have a unique "key" prop."</t>
   </si>
   <si>
@@ -144,6 +145,21 @@
   </si>
   <si>
     <t>Fix bug: When clicking "Add" inputs placeholders do not come back down (and warning stays)</t>
+  </si>
+  <si>
+    <t>Display alert if an input is not filled and the add button is clicked or Enter key is pressed</t>
+  </si>
+  <si>
+    <t>Review @Media for table row height (currently has fixed height of 3.2rem) put it in a class</t>
+  </si>
+  <si>
+    <t>Fix bug: When deleting a row the icons dissapear for a second</t>
+  </si>
+  <si>
+    <t>Catch error when trying to add a contact without typing something on the inputs (the 1st time)</t>
+  </si>
+  <si>
+    <t>Catch warning "validateDOMNesting" (when goint to edit mode)</t>
   </si>
 </sst>
 </file>
@@ -172,7 +188,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,6 +213,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -360,9 +382,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -379,6 +398,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,43 +688,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E26"/>
+  <dimension ref="B1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="82.85546875" customWidth="1"/>
+    <col min="1" max="1" width="1.5703125" customWidth="1"/>
+    <col min="2" max="2" width="84" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1"/>
@@ -708,7 +732,7 @@
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1"/>
@@ -716,7 +740,7 @@
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1"/>
@@ -724,7 +748,7 @@
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="1"/>
@@ -732,7 +756,7 @@
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1"/>
@@ -740,7 +764,7 @@
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1"/>
@@ -748,7 +772,7 @@
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1"/>
@@ -756,7 +780,7 @@
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="1"/>
@@ -764,7 +788,7 @@
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="1"/>
@@ -772,7 +796,7 @@
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1"/>
@@ -780,7 +804,7 @@
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="1"/>
@@ -788,7 +812,7 @@
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="1"/>
@@ -796,92 +820,116 @@
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="15"/>
+      <c r="C16" s="12"/>
       <c r="D16" s="1"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="12" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="12" t="s">
+      <c r="C22" s="12"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="12" t="s">
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="13" t="s">
         <v>27</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="12" t="s">
-        <v>15</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="7"/>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
